--- a/SNMP.xlsx
+++ b/SNMP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Apache24\htdocs\Configs_eve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075BD08-5BEF-41C4-A3FB-24B1C9C1ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F67A254-9D14-4720-A724-26907029875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="2160" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ifTable" sheetId="1" r:id="rId1"/>
+    <sheet name="ipCidrRouteTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,6 +29,23 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E83CCCC6-97F3-4EAC-8063-2EDBDDD507C0}</author>
+    <author>tc={2E8DD0F7-B60F-43AD-BB20-3A19B4E6B805}</author>
+    <author>tc={70EDB732-E5A0-45F2-B27C-DB1A2195C0DC}</author>
+    <author>tc={26928471-1583-4DA4-9488-5952E190EEC5}</author>
+    <author>tc={65F15C6B-893F-4D4A-9B4E-97EC1C04726A}</author>
+    <author>tc={A6B94609-A4C4-4178-9798-CEBC0A4DC2FE}</author>
+    <author>tc={FDF62A1C-8E15-42BC-893B-54C01BD09642}</author>
+    <author>tc={95505506-7CF8-4AD0-9B7E-FC36DE038195}</author>
+    <author>tc={92B3BE8E-0E9C-4939-9DC8-116854DE97AC}</author>
+    <author>tc={9D8839FB-0901-41D2-A508-77263400ADD9}</author>
+    <author>tc={4374728E-85A8-47FA-9D09-001F7165042D}</author>
+    <author>tc={9B0FF1F2-ACDF-4E15-BC6E-EE88B5EE455B}</author>
+    <author>tc={3534768E-6B32-4F18-9234-4C23E567CACA}</author>
+    <author>tc={EF442169-56F2-4C26-BAED-28B77C867056}</author>
+    <author>tc={4A25E986-A223-4842-99B3-7B3D340CA000}</author>
+    <author>tc={7304E9CF-E0DD-45BB-ABEB-FCF2E83C864D}</author>
+    <author>tc={D1CEE4C8-942E-4CC4-96C4-2283732169DA}</author>
+    <author>tc={86778FE2-D020-41BD-AE4F-B6CD7BF67B2C}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E83CCCC6-97F3-4EAC-8063-2EDBDDD507C0}">
@@ -43,12 +61,475 @@
 initialization. </t>
       </text>
     </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{2E8DD0F7-B60F-43AD-BB20-3A19B4E6B805}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A textual string containing information about the
+interface. This string should include the name of the
+manufacturer, the product name and the version of the
+interface hardware/software. </t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{70EDB732-E5A0-45F2-B27C-DB1A2195C0DC}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The type of interface. Additional values for ifType are
+assigned by the Internet Assigned Numbers Authority (IANA),
+through updating the syntax of the IANAifType textual
+convention. </t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{26928471-1583-4DA4-9488-5952E190EEC5}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The size of the largest packet which can be sent/received
+on the interface, specified in octets. For interfaces that
+are used for transmitting network datagrams, this is the
+size of the largest network datagram that can be sent on the
+interface. </t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{65F15C6B-893F-4D4A-9B4E-97EC1C04726A}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    An estimate of the interface's current bandwidth in bits
+per second. For interfaces which do not vary in bandwidth
+or for those where no accurate estimation can be made, this
+object should contain the nominal bandwidth. If the
+bandwidth of the interface is greater than the maximum value
+reportable by this object then this object should report its
+maximum value (4,294,967,295) and ifHighSpeed must be used
+to report the interace's speed. For a sub-layer which has
+no concept of bandwidth, this object should be zero. </t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{A6B94609-A4C4-4178-9798-CEBC0A4DC2FE}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The interface's address at its protocol sub-layer. For
+example, for an 802.x interface, this object normally
+contains a MAC address. The interface's media-specific MIB
+must define the bit and byte ordering and the format of the
+value of this object. For interfaces which do not have such
+an address (e.g., a serial line), this object should contain
+an octet string of zero length. </t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{FDF62A1C-8E15-42BC-893B-54C01BD09642}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The desired state of the interface. The testing(3) state
+indicates that no operational packets can be passed. When a
+managed system initializes, all interfaces start with
+ifAdminStatus in the down(2) state. As a result of either
+explicit management action or per configuration information
+retained by the managed system, ifAdminStatus is then
+changed to either the up(1) or testing(3) states (or remains
+in the down(2) state). </t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{95505506-7CF8-4AD0-9B7E-FC36DE038195}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current operational state of the interface. The
+testing(3) state indicates that no operational packets can
+be passed. If ifAdminStatus is down(2) then ifOperStatus
+should be down(2). If ifAdminStatus is changed to up(1)
+then ifOperStatus should change to up(1) if the interface is
+ready to transmit and receive network traffic; it should
+change to dormant(5) if the interface is waiting for
+external actions (such as a serial line waiting for an
+incoming connection); it should remain in the down(2) state
+if and only if there is a fault that prevents it from going
+to the up(1) state; it should remain in the notPresent(6)
+state if the interface has missing (typically, hardware)
+components. </t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{92B3BE8E-0E9C-4939-9DC8-116854DE97AC}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The value of sysUpTime at the time the interface entered
+its current operational state. If the current state was
+entered prior to the last re-initialization of the local
+network management subsystem, then this object contains a
+zero value. </t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="9" shapeId="0" xr:uid="{9D8839FB-0901-41D2-A508-77263400ADD9}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The total number of octets received on the interface,
+including framing characters.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="10" shapeId="0" xr:uid="{4374728E-85A8-47FA-9D09-001F7165042D}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The number of packets, delivered by this sub-layer to a
+higher (sub-)layer, which were not addressed to a multicast
+or broadcast address at this sub-layer.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="11" shapeId="0" xr:uid="{9B0FF1F2-ACDF-4E15-BC6E-EE88B5EE455B}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The number of inbound packets which were chosen to be discarded even though no errors had been detected to prevent their being deliverable to a higher-layer protocol. One possible reason for discarding such a packet could be to free up buffer space. 
+Discontinuities in the value of this counter can occur at re-initialization of the management system, and at other times as indicated by the value of ifCounterDiscontinuityTime. </t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="12" shapeId="0" xr:uid="{3534768E-6B32-4F18-9234-4C23E567CACA}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    For packet-oriented interfaces, the number of inbound
+packets that contained errors preventing them from being
+deliverable to a higher-layer protocol. For character-
+oriented or fixed-length interfaces, the number of inbound
+transmission units that contained errors preventing them
+from being deliverable to a higher-layer protocol.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="13" shapeId="0" xr:uid="{EF442169-56F2-4C26-BAED-28B77C867056}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    For packet-oriented interfaces, the number of packets
+received via the interface which were discarded because of
+an unknown or unsupported protocol. For character-oriented
+or fixed-length interfaces that support protocol
+multiplexing the number of transmission units received via
+the interface which were discarded because of an unknown or
+unsupported protocol. For any interface that does not
+support protocol multiplexing, this counter will always be
+0.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. 
+</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="14" shapeId="0" xr:uid="{4A25E986-A223-4842-99B3-7B3D340CA000}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The total number of octets transmitted out of the
+interface, including framing characters.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="15" shapeId="0" xr:uid="{7304E9CF-E0DD-45BB-ABEB-FCF2E83C864D}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The total number of packets that higher-level protocols
+requested be transmitted, and which were not addressed to a
+multicast or broadcast address at this sub-layer, including
+those that were discarded or not sent.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="16" shapeId="0" xr:uid="{D1CEE4C8-942E-4CC4-96C4-2283732169DA}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The number of outbound packets which were chosen to be
+discarded even though no errors had been detected to prevent
+their being transmitted. One possible reason for discarding
+such a packet could be to free up buffer space.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </t>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="17" shapeId="0" xr:uid="{86778FE2-D020-41BD-AE4F-B6CD7BF67B2C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    For packet-oriented interfaces, the number of outbound
+packets that could not be transmitted because of errors.
+For character-oriented or fixed-length interfaces, the
+number of outbound transmission units that could not be
+transmitted because of errors.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F9D139AE-4F28-40A4-8F37-F51B24153900}</author>
+    <author>tc={BD70548F-A5D7-4CDA-B87C-6D9706EE648E}</author>
+    <author>tc={3B758419-118B-4D7A-8B3A-03DBEAD77454}</author>
+    <author>tc={BBA21F1E-8F50-444A-96F6-C411358CA8AD}</author>
+    <author>tc={7DFA08AC-9CE8-4064-A256-55F7C7C47997}</author>
+    <author>tc={311F901F-C196-42FE-85A6-571806AA6018}</author>
+    <author>tc={AE3E458E-29AE-4FC3-8144-F88593E98816}</author>
+    <author>tc={73A3692F-E560-45D5-AC28-C892A6205285}</author>
+    <author>tc={6C234CA1-3186-473D-A3CA-ECB002EE2387}</author>
+    <author>tc={5E8E1A19-B4A3-4B75-A5B7-BB8C62C39374}</author>
+    <author>tc={DDC3A29D-37AA-4F7D-8DD1-0509588296F5}</author>
+    <author>tc={12D043EB-7200-41CB-91D4-5F3D6B60BFB9}</author>
+    <author>tc={05547C88-BB43-4B3F-B226-626D21C54801}</author>
+    <author>tc={3402AAD5-1123-4A75-B4A6-58D378777FD0}</author>
+    <author>tc={5EC98E66-60F3-4DDC-BE63-6504D79A2389}</author>
+    <author>tc={C52554F7-3244-4E54-A60C-8351CD63CFA4}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F9D139AE-4F28-40A4-8F37-F51B24153900}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The destination IP address of this route.
+This object may not take a Multicast (Class D)
+address value.
+Any assignment (implicit or otherwise) of an
+instance of this object to a value x must be
+rejected if the bitwise logical-AND of x with
+the value of the corresponding instance of the
+ipCidrRouteMask object is not equal to x. </t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{BD70548F-A5D7-4CDA-B87C-6D9706EE648E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Indicate the mask to be logical-ANDed with the destination address before being compared to the value in the ipCidrRouteDest field. For those systems that do not support arbitrary subnet masks, an agent constructs the value of the ipCidrRouteMask by reference to the IP Ad- dress Class. 
+Any assignment (implicit or otherwise) of an instance of this object to a value x must be rejected if the bitwise logical-AND of x with the value of the corresponding instance of the ipCidrRouteDest object is not equal to ipCidrRoute- Dest. </t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{3B758419-118B-4D7A-8B3A-03DBEAD77454}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The policy specifier is the IP TOS Field. The encoding
+of IP TOS is as specified by the following convention.
+Zero indicates the default path if no more specific
+policy applies.</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{BBA21F1E-8F50-444A-96F6-C411358CA8AD}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    On remote routes, the address of the next system en route; Otherwise, 0.0.0.0. </t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{7DFA08AC-9CE8-4064-A256-55F7C7C47997}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The ifIndex value which identifies the local
+interface through which the next hop of this
+route should be reached. </t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{311F901F-C196-42FE-85A6-571806AA6018}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The type of route. Note that local(3) refers
+to a route for which the next hop is the final
+destination; remote(4) refers to a route for
+which the next hop is not the final destina-
+tion.
+Routes which do not result in traffic forwarding or
+rejection should not be displayed even if the
+implementation keeps them stored internally.
+reject (2) refers to a route which, if matched, discards
+the message as unreachable. This is used in some
+protocols as a means of correctly aggregating routes. </t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{AE3E458E-29AE-4FC3-8144-F88593E98816}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The routing mechanism via which this route was
+learned. Inclusion of values for gateway routing protocols is not intended to imply that
+hosts should support those protocols. 
+</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{73A3692F-E560-45D5-AC28-C892A6205285}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The number of seconds since this route was
+last updated or otherwise determined to be
+correct. Note that no semantics of `too old'
+can be implied except through knowledge of the
+routing protocol by which the route was
+learned. </t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{6C234CA1-3186-473D-A3CA-ECB002EE2387}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A reference to MIB definitions specific to the
+particular routing protocol which is responsi-
+ble for this route, as determined by the value
+specified in the route's ipCidrRouteProto value.
+If this information is not present, its value
+should be set to the OBJECT IDENTIFIER { 0 0 },
+which is a syntactically valid object identif-
+ier, and any implementation conforming to ASN.1
+and the Basic Encoding Rules must be able to
+generate and recognize this value. </t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="9" shapeId="0" xr:uid="{5E8E1A19-B4A3-4B75-A5B7-BB8C62C39374}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The Autonomous System Number of the Next Hop.
+The semantics of this object are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. When this object is
+unknown or not relevant its value should be set
+to zero. </t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="10" shapeId="0" xr:uid="{DDC3A29D-37AA-4F7D-8DD1-0509588296F5}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The primary routing metric for this route.
+The semantics of this metric are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. If this metric is not
+used, its value should be set to -1. </t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="11" shapeId="0" xr:uid="{12D043EB-7200-41CB-91D4-5F3D6B60BFB9}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    An alternate routing metric for this route.
+The semantics of this metric are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. If this metric is not
+used, its value should be set to -1. </t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="12" shapeId="0" xr:uid="{05547C88-BB43-4B3F-B226-626D21C54801}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    An alternate routing metric for this route.
+The semantics of this metric are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. If this metric is not
+used, its value should be set to -1. </t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="13" shapeId="0" xr:uid="{3402AAD5-1123-4A75-B4A6-58D378777FD0}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    An alternate routing metric for this route.
+The semantics of this metric are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. If this metric is not
+used, its value should be set to -1. </t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="14" shapeId="0" xr:uid="{5EC98E66-60F3-4DDC-BE63-6504D79A2389}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    An alternate routing metric for this route.
+The semantics of this metric are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. If this metric is not
+used, its value should be set to -1. </t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="15" shapeId="0" xr:uid="{C52554F7-3244-4E54-A60C-8351CD63CFA4}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The row status variable, used according to
+row installation and removal conventions. </t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>GigabitEthernet0/0</t>
   </si>
@@ -131,32 +612,107 @@
     <t>if last oper state change (9)</t>
   </si>
   <si>
-    <t>recv octets (10)</t>
-  </si>
-  <si>
-    <t>inbound discarded packets (13)</t>
-  </si>
-  <si>
-    <t>inbound packets with errors (14)</t>
-  </si>
-  <si>
-    <t>inbound packets discarded unknown reason (15)</t>
-  </si>
-  <si>
-    <t>sent octets (15)</t>
-  </si>
-  <si>
-    <t>number of packets delivered from higer level (11)</t>
-  </si>
-  <si>
-    <t>number of packets delivered from higer level (1)</t>
+    <t>ipCidrRouteDest</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>10.0.0.2</t>
+  </si>
+  <si>
+    <t>192.168.1.0</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>ipCidrRouteMask</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>255.255.255.255</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>ipCidrRouteTos</t>
+  </si>
+  <si>
+    <t>ipCidrRouteNextHop</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>ipCidrRouteIfIndex</t>
+  </si>
+  <si>
+    <t>ipCidrRouteType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (remote) </t>
+  </si>
+  <si>
+    <t>3 (local)</t>
+  </si>
+  <si>
+    <t>ipCidrRouteProto</t>
+  </si>
+  <si>
+    <t>ipCidrRouteAge</t>
+  </si>
+  <si>
+    <t>ipCidrRouteInfo</t>
+  </si>
+  <si>
+    <t>.ccitt.0</t>
+  </si>
+  <si>
+    <t>.ccitt.1</t>
+  </si>
+  <si>
+    <t>.ccitt.2</t>
+  </si>
+  <si>
+    <t>.ccitt.3</t>
+  </si>
+  <si>
+    <t>.ccitt.4</t>
+  </si>
+  <si>
+    <t>ipCidrRouteNextHopAS</t>
+  </si>
+  <si>
+    <t>ipCidrRouteMetric1</t>
+  </si>
+  <si>
+    <t>ipCidrRouteMetric2</t>
+  </si>
+  <si>
+    <t>ipCidrRouteMetric3</t>
+  </si>
+  <si>
+    <t>ipCidrRouteMetric4</t>
+  </si>
+  <si>
+    <t>ipCidrRouteMetric5</t>
+  </si>
+  <si>
+    <t>ipCidrRouteStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +732,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +747,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -193,16 +755,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,15 +1079,293 @@
 the entity's network management system to the next re-
 initialization. </text>
   </threadedComment>
+  <threadedComment ref="B1" dT="2023-10-01T19:35:52.11" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{2E8DD0F7-B60F-43AD-BB20-3A19B4E6B805}">
+    <text xml:space="preserve">A textual string containing information about the
+interface. This string should include the name of the
+manufacturer, the product name and the version of the
+interface hardware/software. </text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2023-10-01T19:36:40.05" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{70EDB732-E5A0-45F2-B27C-DB1A2195C0DC}">
+    <text xml:space="preserve">The type of interface. Additional values for ifType are
+assigned by the Internet Assigned Numbers Authority (IANA),
+through updating the syntax of the IANAifType textual
+convention. </text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2023-10-01T19:37:01.25" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{26928471-1583-4DA4-9488-5952E190EEC5}">
+    <text xml:space="preserve">The size of the largest packet which can be sent/received
+on the interface, specified in octets. For interfaces that
+are used for transmitting network datagrams, this is the
+size of the largest network datagram that can be sent on the
+interface. </text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2023-10-01T19:37:16.30" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{65F15C6B-893F-4D4A-9B4E-97EC1C04726A}">
+    <text xml:space="preserve">An estimate of the interface's current bandwidth in bits
+per second. For interfaces which do not vary in bandwidth
+or for those where no accurate estimation can be made, this
+object should contain the nominal bandwidth. If the
+bandwidth of the interface is greater than the maximum value
+reportable by this object then this object should report its
+maximum value (4,294,967,295) and ifHighSpeed must be used
+to report the interace's speed. For a sub-layer which has
+no concept of bandwidth, this object should be zero. </text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2023-10-01T19:37:40.49" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{A6B94609-A4C4-4178-9798-CEBC0A4DC2FE}">
+    <text xml:space="preserve">The interface's address at its protocol sub-layer. For
+example, for an 802.x interface, this object normally
+contains a MAC address. The interface's media-specific MIB
+must define the bit and byte ordering and the format of the
+value of this object. For interfaces which do not have such
+an address (e.g., a serial line), this object should contain
+an octet string of zero length. </text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2023-10-01T19:38:25.93" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{FDF62A1C-8E15-42BC-893B-54C01BD09642}">
+    <text xml:space="preserve">The desired state of the interface. The testing(3) state
+indicates that no operational packets can be passed. When a
+managed system initializes, all interfaces start with
+ifAdminStatus in the down(2) state. As a result of either
+explicit management action or per configuration information
+retained by the managed system, ifAdminStatus is then
+changed to either the up(1) or testing(3) states (or remains
+in the down(2) state). </text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2023-10-01T19:40:18.33" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{95505506-7CF8-4AD0-9B7E-FC36DE038195}">
+    <text xml:space="preserve">The current operational state of the interface. The
+testing(3) state indicates that no operational packets can
+be passed. If ifAdminStatus is down(2) then ifOperStatus
+should be down(2). If ifAdminStatus is changed to up(1)
+then ifOperStatus should change to up(1) if the interface is
+ready to transmit and receive network traffic; it should
+change to dormant(5) if the interface is waiting for
+external actions (such as a serial line waiting for an
+incoming connection); it should remain in the down(2) state
+if and only if there is a fault that prevents it from going
+to the up(1) state; it should remain in the notPresent(6)
+state if the interface has missing (typically, hardware)
+components. </text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2023-10-01T19:40:35.66" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{92B3BE8E-0E9C-4939-9DC8-116854DE97AC}">
+    <text xml:space="preserve">The value of sysUpTime at the time the interface entered
+its current operational state. If the current state was
+entered prior to the last re-initialization of the local
+network management subsystem, then this object contains a
+zero value. </text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2023-10-01T19:41:02.53" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{9D8839FB-0901-41D2-A508-77263400ADD9}">
+    <text xml:space="preserve">The total number of octets received on the interface,
+including framing characters.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2023-10-01T19:41:18.63" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{4374728E-85A8-47FA-9D09-001F7165042D}">
+    <text xml:space="preserve">The number of packets, delivered by this sub-layer to a
+higher (sub-)layer, which were not addressed to a multicast
+or broadcast address at this sub-layer.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2023-10-01T19:42:14.62" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{9B0FF1F2-ACDF-4E15-BC6E-EE88B5EE455B}">
+    <text xml:space="preserve">The number of inbound packets which were chosen to be discarded even though no errors had been detected to prevent their being deliverable to a higher-layer protocol. One possible reason for discarding such a packet could be to free up buffer space. 
+Discontinuities in the value of this counter can occur at re-initialization of the management system, and at other times as indicated by the value of ifCounterDiscontinuityTime. </text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2023-10-01T19:42:30.65" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{3534768E-6B32-4F18-9234-4C23E567CACA}">
+    <text xml:space="preserve">For packet-oriented interfaces, the number of inbound
+packets that contained errors preventing them from being
+deliverable to a higher-layer protocol. For character-
+oriented or fixed-length interfaces, the number of inbound
+transmission units that contained errors preventing them
+from being deliverable to a higher-layer protocol.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2023-10-01T19:42:59.16" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{EF442169-56F2-4C26-BAED-28B77C867056}">
+    <text xml:space="preserve">For packet-oriented interfaces, the number of packets
+received via the interface which were discarded because of
+an unknown or unsupported protocol. For character-oriented
+or fixed-length interfaces that support protocol
+multiplexing the number of transmission units received via
+the interface which were discarded because of an unknown or
+unsupported protocol. For any interface that does not
+support protocol multiplexing, this counter will always be
+0.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. 
+</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2023-10-01T19:43:40.67" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{4A25E986-A223-4842-99B3-7B3D340CA000}">
+    <text xml:space="preserve">The total number of octets transmitted out of the
+interface, including framing characters.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2023-10-01T19:44:21.35" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{7304E9CF-E0DD-45BB-ABEB-FCF2E83C864D}">
+    <text xml:space="preserve">The total number of packets that higher-level protocols
+requested be transmitted, and which were not addressed to a
+multicast or broadcast address at this sub-layer, including
+those that were discarded or not sent.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2023-10-01T19:45:07.73" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{D1CEE4C8-942E-4CC4-96C4-2283732169DA}">
+    <text xml:space="preserve">The number of outbound packets which were chosen to be
+discarded even though no errors had been detected to prevent
+their being transmitted. One possible reason for discarding
+such a packet could be to free up buffer space.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </text>
+  </threadedComment>
+  <threadedComment ref="R1" dT="2023-10-01T19:45:29.25" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{86778FE2-D020-41BD-AE4F-B6CD7BF67B2C}">
+    <text xml:space="preserve">For packet-oriented interfaces, the number of outbound
+packets that could not be transmitted because of errors.
+For character-oriented or fixed-length interfaces, the
+number of outbound transmission units that could not be
+transmitted because of errors.
+Discontinuities in the value of this counter can occur at
+re-initialization of the management system, and at other
+times as indicated by the value of
+ifCounterDiscontinuityTime. </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2023-10-01T19:49:40.36" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{F9D139AE-4F28-40A4-8F37-F51B24153900}">
+    <text xml:space="preserve">The destination IP address of this route.
+This object may not take a Multicast (Class D)
+address value.
+Any assignment (implicit or otherwise) of an
+instance of this object to a value x must be
+rejected if the bitwise logical-AND of x with
+the value of the corresponding instance of the
+ipCidrRouteMask object is not equal to x. </text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2023-10-01T19:50:32.97" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{BD70548F-A5D7-4CDA-B87C-6D9706EE648E}">
+    <text xml:space="preserve">Indicate the mask to be logical-ANDed with the destination address before being compared to the value in the ipCidrRouteDest field. For those systems that do not support arbitrary subnet masks, an agent constructs the value of the ipCidrRouteMask by reference to the IP Ad- dress Class. 
+Any assignment (implicit or otherwise) of an instance of this object to a value x must be rejected if the bitwise logical-AND of x with the value of the corresponding instance of the ipCidrRouteDest object is not equal to ipCidrRoute- Dest. </text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2023-10-01T19:51:52.01" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{3B758419-118B-4D7A-8B3A-03DBEAD77454}">
+    <text>The policy specifier is the IP TOS Field. The encoding
+of IP TOS is as specified by the following convention.
+Zero indicates the default path if no more specific
+policy applies.</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2023-10-01T19:52:58.68" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{BBA21F1E-8F50-444A-96F6-C411358CA8AD}">
+    <text xml:space="preserve">On remote routes, the address of the next system en route; Otherwise, 0.0.0.0. </text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2023-10-01T19:53:49.48" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{7DFA08AC-9CE8-4064-A256-55F7C7C47997}">
+    <text xml:space="preserve">The ifIndex value which identifies the local
+interface through which the next hop of this
+route should be reached. </text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2023-10-01T19:54:31.16" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{311F901F-C196-42FE-85A6-571806AA6018}">
+    <text xml:space="preserve">The type of route. Note that local(3) refers
+to a route for which the next hop is the final
+destination; remote(4) refers to a route for
+which the next hop is not the final destina-
+tion.
+Routes which do not result in traffic forwarding or
+rejection should not be displayed even if the
+implementation keeps them stored internally.
+reject (2) refers to a route which, if matched, discards
+the message as unreachable. This is used in some
+protocols as a means of correctly aggregating routes. </text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2023-10-01T19:55:48.34" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{AE3E458E-29AE-4FC3-8144-F88593E98816}">
+    <text xml:space="preserve">The routing mechanism via which this route was
+learned. Inclusion of values for gateway routing protocols is not intended to imply that
+hosts should support those protocols. 
+</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2023-10-01T19:56:34.76" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{73A3692F-E560-45D5-AC28-C892A6205285}">
+    <text xml:space="preserve">The number of seconds since this route was
+last updated or otherwise determined to be
+correct. Note that no semantics of `too old'
+can be implied except through knowledge of the
+routing protocol by which the route was
+learned. </text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2023-10-01T19:57:32.93" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{6C234CA1-3186-473D-A3CA-ECB002EE2387}">
+    <text xml:space="preserve">A reference to MIB definitions specific to the
+particular routing protocol which is responsi-
+ble for this route, as determined by the value
+specified in the route's ipCidrRouteProto value.
+If this information is not present, its value
+should be set to the OBJECT IDENTIFIER { 0 0 },
+which is a syntactically valid object identif-
+ier, and any implementation conforming to ASN.1
+and the Basic Encoding Rules must be able to
+generate and recognize this value. </text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2023-10-01T19:58:36.13" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{5E8E1A19-B4A3-4B75-A5B7-BB8C62C39374}">
+    <text xml:space="preserve">The Autonomous System Number of the Next Hop.
+The semantics of this object are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. When this object is
+unknown or not relevant its value should be set
+to zero. </text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2023-10-01T20:00:41.49" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{DDC3A29D-37AA-4F7D-8DD1-0509588296F5}">
+    <text xml:space="preserve">The primary routing metric for this route.
+The semantics of this metric are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. If this metric is not
+used, its value should be set to -1. </text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2023-10-01T20:03:54.56" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{12D043EB-7200-41CB-91D4-5F3D6B60BFB9}">
+    <text xml:space="preserve">An alternate routing metric for this route.
+The semantics of this metric are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. If this metric is not
+used, its value should be set to -1. </text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2023-10-01T20:04:08.48" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{05547C88-BB43-4B3F-B226-626D21C54801}">
+    <text xml:space="preserve">An alternate routing metric for this route.
+The semantics of this metric are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. If this metric is not
+used, its value should be set to -1. </text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2023-10-01T20:04:16.95" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{3402AAD5-1123-4A75-B4A6-58D378777FD0}">
+    <text xml:space="preserve">An alternate routing metric for this route.
+The semantics of this metric are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. If this metric is not
+used, its value should be set to -1. </text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2023-10-01T20:04:26.32" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{5EC98E66-60F3-4DDC-BE63-6504D79A2389}">
+    <text xml:space="preserve">An alternate routing metric for this route.
+The semantics of this metric are determined by
+the routing-protocol specified in the route's
+ipCidrRouteProto value. If this metric is not
+used, its value should be set to -1. </text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2023-10-01T20:04:39.31" personId="{648462F8-E9DD-4A91-B576-BE6B6E6BFA3E}" id="{C52554F7-3244-4E54-A60C-8351CD63CFA4}">
+    <text xml:space="preserve">The row status variable, used according to
+row installation and removal conventions. </text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,296 +1378,342 @@
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>33</v>
+      <c r="J1" s="2">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1500</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>1.9907407407407409E-4</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>13490</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>114</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
         <v>43094</v>
       </c>
+      <c r="P2" s="2">
+        <v>456</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>1500</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>1.9907407407407409E-4</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>1407772</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>13452</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
         <v>17</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>1452902</v>
       </c>
+      <c r="P3" s="2">
+        <v>13240</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1500</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>1.9907407407407409E-4</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>1500</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>1.9907407407407409E-4</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1500</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>4294967295</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -818,4 +1722,336 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE10BC5-7762-4436-9C97-8F4D37BFF2D3}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>718</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>718</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>718</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>718</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>718</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SNMP.xlsx
+++ b/SNMP.xlsx
@@ -730,89 +730,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
-  <si>
-    <t xml:space="preserve">if number (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if descr (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if type (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if mtu (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if speed (5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if physical addr (6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if adm status (7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if oper status (8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if last oper state change (9)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+  <si>
+    <t xml:space="preserve">ifIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifDescr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifMtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifPhysAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifAdminStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifOperStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifLastChange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifInOctets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifInUcastPkts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifInDiscards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifInErrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifInUnknownProtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifOutOctets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifOutUcastPkts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifOutDiscards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifOutErrors</t>
   </si>
   <si>
     <t xml:space="preserve">GigabitEthernet0/0</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6 (ethernet-csmacd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 00 00 03 00 00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (up)</t>
+    <t xml:space="preserve">ethernetCsmacd(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50:00:00:03:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">up(1)</t>
   </si>
   <si>
     <t xml:space="preserve">GigabitEthernet0/1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7 (ethernet-csmacd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 00 00 03 00 01</t>
+    <t xml:space="preserve">50:00:00:03:00:01</t>
   </si>
   <si>
     <t xml:space="preserve">GigabitEthernet0/2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8 (ethernet-csmacd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 00 00 03 00 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (down)</t>
+    <t xml:space="preserve">50:00:00:03:00:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down(2)</t>
   </si>
   <si>
     <t xml:space="preserve">GigabitEthernet0/3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9 (ethernet-csmacd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 00 00 03 00 03</t>
+    <t xml:space="preserve">50:00:00:03:00:03</t>
   </si>
   <si>
     <t xml:space="preserve">Null0</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (other)</t>
+    <t xml:space="preserve">other(1)</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (up)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipCidrRouteDest</t>
   </si>
   <si>
@@ -867,10 +882,16 @@
     <t xml:space="preserve">10.0.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">4 (remote) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.ccitt.0</t>
+    <t xml:space="preserve">remote(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netmgmt(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.ccitt.zeroDotZero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active(1)</t>
   </si>
   <si>
     <t xml:space="preserve">10.0.0.0</t>
@@ -879,7 +900,10 @@
     <t xml:space="preserve">255.255.255.252</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (local)</t>
+    <t xml:space="preserve">local(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local(2)</t>
   </si>
   <si>
     <t xml:space="preserve">10.0.0.2</t>
@@ -983,20 +1007,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1191,356 +1219,364 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="1" sqref="I6 H22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="10" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="n">
+    </row>
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="D2" s="2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.000197916666666667</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>38710</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>142398</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>1569</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="n">
+    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>1000000000</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.000199074074074074</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>13490</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>43094</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="n">
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.00019791666667</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>177207</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>1875</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>98248</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="n">
+    <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>1000000000</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.000199074074074074</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>1407772</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>13452</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>1452902</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>13240</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" t="n">
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.00019791666667</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="n">
+    <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>1000000000</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.000199074074074074</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="n">
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.00019791666667</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>4294967295</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.000199074074074074</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>4294967295</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="n">
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,323 +1600,323 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.29"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="n">
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1788</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1788</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1788</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="n">
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1788</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M5" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N5" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O5" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v>1</v>
+      <c r="P5" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="1" t="n">
+    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="n">
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1788</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M6" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N6" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O6" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="P4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
